--- a/Documents/ScreenSpecification.xlsx
+++ b/Documents/ScreenSpecification.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wing\Documents\webDevelopment\TotalPopulationTransitionGraphForEachPrefecture\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6455B14E-0A1C-427A-8640-BAC3B4239A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196ABD91-883E-447C-938D-61A1FC9062F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" activeTab="1" xr2:uid="{968D3CE3-8F29-45CC-B5FE-A8D752B66317}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{968D3CE3-8F29-45CC-B5FE-A8D752B66317}"/>
   </bookViews>
   <sheets>
     <sheet name="画面仕様(下書き)" sheetId="1" r:id="rId1"/>
     <sheet name="画面仕様①（清書）" sheetId="2" r:id="rId2"/>
-    <sheet name="画面仕様②（清書）" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="画面仕様②（清書）" sheetId="3" r:id="rId4"/>
+    <sheet name="降順ソート" sheetId="4" r:id="rId5"/>
+    <sheet name="PAD基本図形 (2)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>コメント：株式会社ベンジャミン採用試験課題の内容を画面でイメージできるようにすること</t>
     <rPh sb="22" eb="24">
@@ -252,15 +255,157 @@
     <t>埼玉県の人口構成：</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期化</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ショキカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃したか？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゲキシタカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃できなくなる</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゲキデキナクナル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行動できる</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウドウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>for文</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i = 0~10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃Aをする</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゲキ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>while文</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i = 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i &lt; 10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前進する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンシｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i++</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成する機能：機能4.で取得した西暦データに基づいて降順で西暦データとそれに対応する人口データを並び替える。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人口構成データを取得？</t>
+    <rPh sb="0" eb="4">
+      <t>ジンコウコウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yearでdataの配列をソート</t>
+    <rPh sb="10" eb="12">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1990年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1985年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1980年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -299,6 +444,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -442,16 +603,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,7 +774,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -509,10 +804,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{007D872F-06C5-4FED-A929-007A42249D82}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,6 +908,1061 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>東京都の人口構成</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'画面仕様①（清書）'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>総人口（人数）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'画面仕様①（清書）'!$B$30:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1990年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1985年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'画面仕様①（清書）'!$C$30:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4D3-4674-A433-0160269C6BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'画面仕様①（清書）'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>年少人口（人数）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'画面仕様①（清書）'!$B$30:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1990年</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1985年</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'画面仕様①（清書）'!$D$30:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4D3-4674-A433-0160269C6BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="618383752"/>
+        <c:axId val="618382440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'画面仕様①（清書）'!$B$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>西暦</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'画面仕様①（清書）'!$B$30:$B$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1990年</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1985年</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1980年</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'画面仕様①（清書）'!$B$30:$B$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D4D3-4674-A433-0160269C6BAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="618383752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618382440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618382440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618383752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,206 +2724,100 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="グラフ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA18B47-37B2-4394-BC0B-9C2BF43CC1B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C04BB2-1F65-EA42-7E30-2B523F9EB428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="1150620"/>
-          <a:ext cx="1950720" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チェックボックス表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A47C13-D271-8122-143E-2643BB0F1C11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7688580" y="1592580"/>
-          <a:ext cx="2186940" cy="853440"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -160206"/>
-            <a:gd name="adj2" fmla="val -87500"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>このボタンを押すと、以下のチェックボックスが表示される。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1112520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8CDEBA-62B4-40B1-8367-9A163526E09C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1965960" y="4358640"/>
-          <a:ext cx="1623060" cy="281940"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>人口構成表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.0625</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11333</cdr:x>
+      <cdr:y>0.14306</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CD2DB0-4A0A-BBBC-7A17-69D50D75A1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="171450"/>
+          <a:ext cx="518160" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>人口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2421,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734CE8F-DC3B-427F-9ED3-C5726145DC19}">
-  <dimension ref="B1:U32"/>
+  <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
@@ -2986,82 +4318,90 @@
         <v>13</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B30" s="7">
-        <v>1990</v>
+      <c r="B30" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="7">
         <v>12571</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
+        <v>2346</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7">
+        <v>12707</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2769</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12817</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2906</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J33" s="8">
         <f>C30/C31-1</f>
         <v>-1.0702762257023712E-2</v>
       </c>
-      <c r="E30" s="7">
-        <v>2346</v>
-      </c>
-      <c r="F30" s="9">
-        <f>E30/C30</f>
-        <v>0.18661999840903667</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B31" s="7">
-        <v>1985</v>
-      </c>
-      <c r="C31" s="7">
-        <v>12707</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="L33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J34" s="8">
         <f>C31/C32-1</f>
         <v>-8.5823515643286274E-3</v>
       </c>
-      <c r="E31" s="7">
-        <v>2769</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" ref="F31:F32" si="0">E31/C31</f>
-        <v>0.21791138742425434</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B32" s="7">
-        <v>1980</v>
-      </c>
-      <c r="C32" s="7">
-        <v>12817</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="L34" s="9">
+        <f>D30/C30</f>
+        <v>0.18661999840903667</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J35" s="8">
         <f>C32/C32-1</f>
         <v>0</v>
       </c>
-      <c r="E32" s="7">
-        <v>2906</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="0"/>
+      <c r="L35" s="9">
+        <f>D31/C31</f>
+        <v>0.21791138742425434</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="L36" s="9">
+        <f>D32/C32</f>
         <v>0.22673012405399079</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3073,6 +4413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1149C-2B46-489C-A5CC-D08B5C2CDD87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FE9B44-D3F9-44A9-A1D2-8C5E2A743FC3}">
   <dimension ref="B1:U27"/>
   <sheetViews>
@@ -3658,4 +5013,780 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A2E3F-559D-4B84-B07B-3E0B06E1FC0C}">
+  <dimension ref="A1:AT32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.33203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="P3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="30"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E7" s="21"/>
+      <c r="F7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="30"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E8" s="21"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="24"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="33"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E9" s="21"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E10" s="21"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E11" s="21"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="30"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E12" s="21"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="E14" s="21"/>
+      <c r="F14" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="F15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="36"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="39"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E18" s="21"/>
+      <c r="F18" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="F19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="F23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="36"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="39"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E27" s="21"/>
+      <c r="P27" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="36"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E28" s="21"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="39"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B31" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F15:M16"/>
+    <mergeCell ref="P15:W16"/>
+    <mergeCell ref="P3:W4"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="AM7:AT8"/>
+    <mergeCell ref="F7:K10"/>
+    <mergeCell ref="P7:W8"/>
+    <mergeCell ref="P11:W12"/>
+    <mergeCell ref="F19:M20"/>
+    <mergeCell ref="F23:M24"/>
+    <mergeCell ref="P23:W24"/>
+    <mergeCell ref="P27:W28"/>
+    <mergeCell ref="B31:I32"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB1493-6FC0-4AD0-A1E1-0669A5B95172}">
+  <dimension ref="B2:W35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.33203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="F6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E10" s="21"/>
+      <c r="F10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E11" s="21"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="24"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E12" s="21"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E13" s="21"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E14" s="21"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E15" s="21"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="33"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E17" s="21"/>
+      <c r="F17" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="36"/>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="39"/>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E21" s="21"/>
+      <c r="F21" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F26" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="39"/>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E30" s="21"/>
+      <c r="P30" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="36"/>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E31" s="21"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="39"/>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.4">
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F18:M19"/>
+    <mergeCell ref="P18:W19"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="F6:M7"/>
+    <mergeCell ref="F10:K13"/>
+    <mergeCell ref="P10:W11"/>
+    <mergeCell ref="P14:W15"/>
+    <mergeCell ref="F22:M23"/>
+    <mergeCell ref="F26:M27"/>
+    <mergeCell ref="P26:W27"/>
+    <mergeCell ref="P30:W31"/>
+    <mergeCell ref="B34:I35"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/ScreenSpecification.xlsx
+++ b/Documents/ScreenSpecification.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wing\Documents\webDevelopment\TotalPopulationTransitionGraphForEachPrefecture\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196ABD91-883E-447C-938D-61A1FC9062F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845ABE0D-5BD0-4C3F-BFAB-8AA01EB49A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21732" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{968D3CE3-8F29-45CC-B5FE-A8D752B66317}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="22320" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{968D3CE3-8F29-45CC-B5FE-A8D752B66317}"/>
   </bookViews>
   <sheets>
     <sheet name="画面仕様(下書き)" sheetId="1" r:id="rId1"/>
     <sheet name="画面仕様①（清書）" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="画面仕様②（清書）" sheetId="3" r:id="rId4"/>
-    <sheet name="降順ソート" sheetId="4" r:id="rId5"/>
-    <sheet name="PAD基本図形 (2)" sheetId="5" r:id="rId6"/>
+    <sheet name="画面仕様②（清書）" sheetId="3" r:id="rId3"/>
+    <sheet name="降順ソート" sheetId="4" r:id="rId4"/>
+    <sheet name="PAD基本図形 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -867,12 +866,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -890,6 +883,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3755,7 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734CE8F-DC3B-427F-9ED3-C5726145DC19}">
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -4413,26 +4412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1149C-2B46-489C-A5CC-D08B5C2CDD87}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FE9B44-D3F9-44A9-A1D2-8C5E2A743FC3}">
   <dimension ref="B1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
@@ -5015,7 +4999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A2E3F-559D-4B84-B07B-3E0B06E1FC0C}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
@@ -5092,14 +5076,14 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.4">
       <c r="E7" s="21"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -5124,12 +5108,12 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.4">
       <c r="E8" s="21"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="24"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="32"/>
@@ -5150,22 +5134,22 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.4">
       <c r="E9" s="21"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.4">
       <c r="E10" s="21"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="23"/>
       <c r="M10" s="27"/>
       <c r="N10" s="19" t="s">
@@ -5390,6 +5374,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F19:M20"/>
+    <mergeCell ref="F23:M24"/>
+    <mergeCell ref="P23:W24"/>
+    <mergeCell ref="P27:W28"/>
+    <mergeCell ref="B31:I32"/>
     <mergeCell ref="F15:M16"/>
     <mergeCell ref="P15:W16"/>
     <mergeCell ref="P3:W4"/>
@@ -5398,18 +5387,13 @@
     <mergeCell ref="F7:K10"/>
     <mergeCell ref="P7:W8"/>
     <mergeCell ref="P11:W12"/>
-    <mergeCell ref="F19:M20"/>
-    <mergeCell ref="F23:M24"/>
-    <mergeCell ref="P23:W24"/>
-    <mergeCell ref="P27:W28"/>
-    <mergeCell ref="B31:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB1493-6FC0-4AD0-A1E1-0669A5B95172}">
   <dimension ref="B2:W35"/>
   <sheetViews>
@@ -5515,12 +5499,12 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E11" s="21"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="24"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="32"/>
@@ -5533,12 +5517,12 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E12" s="21"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
@@ -5773,6 +5757,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F22:M23"/>
+    <mergeCell ref="F26:M27"/>
+    <mergeCell ref="P26:W27"/>
+    <mergeCell ref="P30:W31"/>
+    <mergeCell ref="B34:I35"/>
     <mergeCell ref="F18:M19"/>
     <mergeCell ref="P18:W19"/>
     <mergeCell ref="B2:I3"/>
@@ -5780,11 +5769,6 @@
     <mergeCell ref="F10:K13"/>
     <mergeCell ref="P10:W11"/>
     <mergeCell ref="P14:W15"/>
-    <mergeCell ref="F22:M23"/>
-    <mergeCell ref="F26:M27"/>
-    <mergeCell ref="P26:W27"/>
-    <mergeCell ref="P30:W31"/>
-    <mergeCell ref="B34:I35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
